--- a/Bimonthly Progress Report.xlsx
+++ b/Bimonthly Progress Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagdevsinghdosanjh.RHINO\biomnthly-student-dashboard\student_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\biomnthly-student-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F448C9-1365-42AA-878E-D3F2660BF14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{84DB21F0-69B3-4089-A9D0-4CA5480F0E4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,10 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
   <si>
     <t>S.No</t>
   </si>
@@ -454,13 +456,16 @@
   </si>
   <si>
     <t>03-Jan-2010</t>
+  </si>
+  <si>
+    <t>Government High School Chananke Amritsar (Bimonthly Exam-I Class Tenth 2025-26)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +486,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -496,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -532,11 +545,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -559,6 +581,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,11 +605,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="StudentData"/>
       <sheetName val="6th"/>
@@ -589,6 +614,7 @@
       <sheetName val="8th"/>
       <sheetName val="9th"/>
       <sheetName val="10th"/>
+      <sheetName val="Student List GHS Chananke 2025-"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -597,6 +623,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -898,474 +925,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA867CA-EBB1-47BB-8046-FED0BADB67DB}">
-  <dimension ref="A1:R38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection sqref="A1:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[Student ID]]</f>
         <v>Student ID</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[Name]]</f>
         <v>Name</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[FatherName]]</f>
         <v>FatherName</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[MotherName]]</f>
         <v>MotherName</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[DOB]]</f>
         <v>DOB</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[Gender]]</f>
         <v>Gender</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <f>[1]!Table1[[#Headers],[Class]]</f>
         <v>Class</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5">
         <v>8792461</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>13</v>
       </c>
-      <c r="J2" s="4">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="J3" s="4">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
         <v>13</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N3" s="4">
         <v>16</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O3" s="4">
         <v>8</v>
       </c>
-      <c r="P2" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q38" si="0">SUM(I2:N2)</f>
+      <c r="P3" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q39" si="0">SUM(I3:N3)</f>
         <v>83</v>
       </c>
-      <c r="R2" s="7">
-        <f>Q2*100/120</f>
+      <c r="R3" s="7">
+        <f t="shared" ref="R3:R39" si="1">Q3*100/120</f>
         <v>69.166666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <f>A2+1</f>
+    <row r="4" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>9012827</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4">
         <v>18</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="4">
         <v>17</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="4">
         <v>16</v>
       </c>
-      <c r="M3" s="4">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M4" s="4">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
         <v>19</v>
-      </c>
-      <c r="O3" s="4">
-        <v>9</v>
-      </c>
-      <c r="P3" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="R3" s="7">
-        <f>Q3*100/120</f>
-        <v>78.333333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4:A38" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7069347</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4">
-        <v>11</v>
-      </c>
-      <c r="N4" s="4">
-        <v>18</v>
       </c>
       <c r="O4" s="4">
         <v>9</v>
       </c>
       <c r="P4" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="R4" s="7">
-        <f>Q4*100/120</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A5:A39" si="2">A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>8614037</v>
+        <v>7069347</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
       </c>
       <c r="I5" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N5" s="4">
         <v>18</v>
       </c>
       <c r="O5" s="4">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8614037</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4">
         <v>6</v>
       </c>
-      <c r="P5" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="P6" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R5" s="7">
-        <f>Q5*100/120</f>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <f t="shared" si="1"/>
+    <row r="7" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>8790511</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
         <v>11</v>
       </c>
-      <c r="J6" s="4">
-        <v>14</v>
-      </c>
-      <c r="K6" s="4">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="J7" s="4">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4">
         <v>13</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="4">
         <v>16</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <v>8</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P7" s="4">
         <v>16</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="R6" s="7">
-        <f>Q6*100/120</f>
+      <c r="R7" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" si="1"/>
+    <row r="8" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
         <v>13890949</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4">
         <v>11</v>
       </c>
-      <c r="L7" s="4">
-        <v>14</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="L8" s="4">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4">
         <v>7</v>
-      </c>
-      <c r="N7" s="4">
-        <v>18</v>
-      </c>
-      <c r="O7" s="4">
-        <v>4</v>
-      </c>
-      <c r="P7" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="R7" s="7">
-        <f>Q7*100/120</f>
-        <v>61.666666666666664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15773856</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4">
-        <v>14</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5</v>
       </c>
       <c r="N8" s="4">
         <v>18</v>
@@ -1374,54 +1376,54 @@
         <v>4</v>
       </c>
       <c r="P8" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R8" s="7">
-        <f>Q8*100/120</f>
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>61.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>7077019</v>
+        <v>15773856</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5">
         <v>10</v>
       </c>
       <c r="I9" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9" s="4">
         <v>5</v>
@@ -1430,39 +1432,39 @@
         <v>18</v>
       </c>
       <c r="O9" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R9" s="7">
-        <f>Q9*100/120</f>
-        <v>59.166666666666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>7080980</v>
+        <v>7077019</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>20</v>
@@ -1471,352 +1473,352 @@
         <v>10</v>
       </c>
       <c r="I10" s="4">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12</v>
+      </c>
+      <c r="K10" s="4">
+        <v>13</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>18</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="1"/>
+        <v>59.166666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7080980</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
         <v>8</v>
       </c>
-      <c r="J10" s="4">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4">
-        <v>10</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="J11" s="4">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
-        <v>15</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N11" s="4">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4">
         <v>2</v>
       </c>
-      <c r="P10" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P11" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="R10" s="7">
-        <f>Q10*100/120</f>
+      <c r="R11" s="7">
+        <f t="shared" si="1"/>
         <v>51.666666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="12" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>3958507</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
-        <v>14</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
         <v>11</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="4">
         <v>11</v>
-      </c>
-      <c r="M11" s="4">
-        <v>4</v>
-      </c>
-      <c r="N11" s="4">
-        <v>16</v>
-      </c>
-      <c r="O11" s="4">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="R11" s="7">
-        <f>Q11*100/120</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8789695</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4">
-        <v>10</v>
-      </c>
-      <c r="J12" s="4">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4">
-        <v>15</v>
-      </c>
-      <c r="L12" s="4">
-        <v>12</v>
       </c>
       <c r="M12" s="4">
         <v>4</v>
       </c>
       <c r="N12" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O12" s="4">
         <v>4</v>
       </c>
       <c r="P12" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8789695</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <v>15</v>
+      </c>
+      <c r="K13" s="4">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4">
+        <v>12</v>
+      </c>
+      <c r="M13" s="4">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>19</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="R12" s="7">
-        <f>Q12*100/120</f>
+      <c r="R13" s="7">
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="14" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
         <v>9062017</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
         <v>18</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="4">
         <v>16</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="4">
         <v>13</v>
       </c>
-      <c r="M13" s="4">
-        <v>15</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M14" s="4">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4">
         <v>18</v>
       </c>
-      <c r="O13" s="4">
-        <v>12</v>
-      </c>
-      <c r="P13" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="O14" s="4">
+        <v>12</v>
+      </c>
+      <c r="P14" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="R13" s="7">
-        <f>Q13*100/120</f>
+      <c r="R14" s="7">
+        <f t="shared" si="1"/>
         <v>79.166666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="1"/>
+    <row r="15" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>7069339</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
         <v>13</v>
       </c>
-      <c r="K14" s="4">
-        <v>10</v>
-      </c>
-      <c r="L14" s="4">
-        <v>12</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="K15" s="4">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>12</v>
+      </c>
+      <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>15</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N15" s="4">
+        <v>15</v>
+      </c>
+      <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P15" s="4">
         <v>16</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R14" s="7">
-        <f>Q14*100/120</f>
+      <c r="R15" s="7">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="16" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
         <v>8790429</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4">
-        <v>9</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12</v>
-      </c>
-      <c r="K15" s="4">
-        <v>15</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10</v>
-      </c>
-      <c r="M15" s="4">
-        <v>4</v>
-      </c>
-      <c r="N15" s="4">
-        <v>18</v>
-      </c>
-      <c r="O15" s="4">
-        <v>5</v>
-      </c>
-      <c r="P15" s="4">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="R15" s="7">
-        <f>Q15*100/120</f>
-        <v>56.666666666666664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>8790588</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -1828,13 +1830,13 @@
         <v>9</v>
       </c>
       <c r="J16" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4">
         <v>4</v>
@@ -1846,95 +1848,95 @@
         <v>5</v>
       </c>
       <c r="P16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="1"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8790588</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4">
+        <v>13</v>
+      </c>
+      <c r="K17" s="4">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>18</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="R16" s="7">
-        <f>Q16*100/120</f>
+      <c r="R17" s="7">
+        <f t="shared" si="1"/>
         <v>60.833333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="1"/>
+    <row r="18" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>9198115</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="5">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4">
-        <v>11</v>
-      </c>
-      <c r="J17" s="4">
-        <v>14</v>
-      </c>
-      <c r="K17" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="L17" s="4">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4">
-        <v>12</v>
-      </c>
-      <c r="N17" s="4">
-        <v>16</v>
-      </c>
-      <c r="O17" s="4">
-        <v>11</v>
-      </c>
-      <c r="P17" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="0"/>
-        <v>79.5</v>
-      </c>
-      <c r="R17" s="7">
-        <f>Q17*100/120</f>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8792320</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>20</v>
@@ -1943,57 +1945,57 @@
         <v>10</v>
       </c>
       <c r="I18" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K18" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4">
+        <v>12</v>
+      </c>
+      <c r="N18" s="4">
         <v>16</v>
       </c>
-      <c r="L18" s="4">
-        <v>16</v>
-      </c>
-      <c r="M18" s="4">
-        <v>14</v>
-      </c>
-      <c r="N18" s="4">
-        <v>19</v>
-      </c>
       <c r="O18" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P18" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>79.5</v>
       </c>
       <c r="R18" s="7">
-        <f>Q18*100/120</f>
-        <v>80.833333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>8790676</v>
+        <v>8792320</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>20</v>
@@ -2002,234 +2004,234 @@
         <v>10</v>
       </c>
       <c r="I19" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="4">
         <v>18</v>
       </c>
       <c r="K19" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="4">
         <v>16</v>
       </c>
       <c r="M19" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" s="4">
         <v>19</v>
       </c>
       <c r="O19" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R19" s="7">
-        <f>Q19*100/120</f>
-        <v>84.166666666666671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>80.833333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>8790345</v>
+        <v>8790676</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J20" s="4">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4">
         <v>16</v>
       </c>
-      <c r="K20" s="4">
-        <v>13</v>
-      </c>
-      <c r="L20" s="4">
-        <v>13</v>
-      </c>
       <c r="M20" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N20" s="4">
         <v>19</v>
       </c>
       <c r="O20" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P20" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="R20" s="7">
-        <f>Q20*100/120</f>
-        <v>64.166666666666671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>84.166666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>8806313</v>
+        <v>8790345</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>13</v>
+      </c>
+      <c r="L21" s="4">
+        <v>13</v>
+      </c>
+      <c r="M21" s="4">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4">
+        <v>19</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6</v>
+      </c>
+      <c r="P21" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="1"/>
+        <v>64.166666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8806313</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
         <v>7</v>
       </c>
-      <c r="J21" s="4">
-        <v>12</v>
-      </c>
-      <c r="K21" s="4">
-        <v>10</v>
-      </c>
-      <c r="L21" s="4">
-        <v>10</v>
-      </c>
-      <c r="M21" s="4">
+      <c r="J22" s="4">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4">
         <v>0</v>
       </c>
-      <c r="N21" s="4">
-        <v>14</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N22" s="4">
+        <v>14</v>
+      </c>
+      <c r="O22" s="4">
         <v>4</v>
       </c>
-      <c r="P21" s="4">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="P22" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="R21" s="7">
-        <f>Q21*100/120</f>
+      <c r="R22" s="7">
+        <f t="shared" si="1"/>
         <v>44.166666666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <f t="shared" si="1"/>
+    <row r="23" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>8797009</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4">
-        <v>14</v>
-      </c>
-      <c r="J22" s="4">
-        <v>18</v>
-      </c>
-      <c r="K22" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="L22" s="4">
-        <v>16</v>
-      </c>
-      <c r="M22" s="4">
-        <v>14</v>
-      </c>
-      <c r="N22" s="4">
-        <v>16</v>
-      </c>
-      <c r="O22" s="4">
-        <v>14</v>
-      </c>
-      <c r="P22" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="0"/>
-        <v>96.5</v>
-      </c>
-      <c r="R22" s="7">
-        <f>Q22*100/120</f>
-        <v>80.416666666666671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>7080966</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>20</v>
@@ -2238,57 +2240,57 @@
         <v>10</v>
       </c>
       <c r="I23" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23" s="4">
+        <v>18</v>
+      </c>
+      <c r="K23" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="L23" s="4">
         <v>16</v>
       </c>
-      <c r="K23" s="4">
-        <v>13</v>
-      </c>
-      <c r="L23" s="4">
-        <v>14</v>
-      </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N23" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P23" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>96.5</v>
       </c>
       <c r="R23" s="7">
-        <f>Q23*100/120</f>
-        <v>54.166666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>80.416666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>8792146</v>
+        <v>7080966</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>20</v>
@@ -2297,57 +2299,57 @@
         <v>10</v>
       </c>
       <c r="I24" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L24" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M24" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="R24" s="7">
-        <f>Q24*100/120</f>
-        <v>70.833333333333329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>54.166666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>8797216</v>
+        <v>8792146</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>20</v>
@@ -2356,57 +2358,57 @@
         <v>10</v>
       </c>
       <c r="I25" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K25" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L25" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N25" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" s="4">
         <v>10</v>
       </c>
       <c r="P25" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="R25" s="7">
-        <f>Q25*100/120</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>70.833333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>8797160</v>
+        <v>8797216</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>20</v>
@@ -2415,57 +2417,57 @@
         <v>10</v>
       </c>
       <c r="I26" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J26" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N26" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O26" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="R26" s="7">
-        <f>Q26*100/120</f>
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>8806296</v>
+        <v>8797160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>20</v>
@@ -2474,414 +2476,414 @@
         <v>10</v>
       </c>
       <c r="I27" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J27" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" s="4">
         <v>12</v>
       </c>
       <c r="L27" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M27" s="4">
+        <v>12</v>
+      </c>
+      <c r="N27" s="4">
+        <v>18</v>
+      </c>
+      <c r="O27" s="4">
+        <v>14</v>
+      </c>
+      <c r="P27" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="1"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8806296</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15</v>
+      </c>
+      <c r="K28" s="4">
+        <v>12</v>
+      </c>
+      <c r="L28" s="4">
+        <v>14</v>
+      </c>
+      <c r="M28" s="4">
         <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>19</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>14</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="R27" s="7">
-        <f>Q27*100/120</f>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>8797236</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="5">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4">
-        <v>8</v>
-      </c>
-      <c r="J28" s="4">
-        <v>12</v>
-      </c>
-      <c r="K28" s="4">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4">
-        <v>12</v>
-      </c>
-      <c r="M28" s="4">
-        <v>9</v>
       </c>
       <c r="N28" s="4">
         <v>19</v>
       </c>
       <c r="O28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="R28" s="7">
-        <f>Q28*100/120</f>
+        <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>9777058</v>
+        <v>8797236</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5">
         <v>10</v>
       </c>
       <c r="I29" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J29" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K29" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L29" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M29" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N29" s="4">
         <v>19</v>
       </c>
       <c r="O29" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="1"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>9777058</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4">
+        <v>17</v>
+      </c>
+      <c r="K30" s="4">
+        <v>16</v>
+      </c>
+      <c r="L30" s="4">
+        <v>19</v>
+      </c>
+      <c r="M30" s="4">
+        <v>13</v>
+      </c>
+      <c r="N30" s="4">
+        <v>19</v>
+      </c>
+      <c r="O30" s="4">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="R29" s="7">
-        <f>Q29*100/120</f>
+      <c r="R30" s="7">
+        <f t="shared" si="1"/>
         <v>81.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <f t="shared" si="1"/>
+    <row r="31" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5">
         <v>8790228</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="G31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="5">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
         <v>8</v>
       </c>
-      <c r="J30" s="4">
-        <v>12</v>
-      </c>
-      <c r="K30" s="4">
-        <v>12</v>
-      </c>
-      <c r="L30" s="4">
-        <v>14</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="J31" s="4">
+        <v>12</v>
+      </c>
+      <c r="K31" s="4">
+        <v>12</v>
+      </c>
+      <c r="L31" s="4">
+        <v>14</v>
+      </c>
+      <c r="M31" s="4">
         <v>8</v>
       </c>
-      <c r="N30" s="4">
-        <v>14</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N31" s="4">
+        <v>14</v>
+      </c>
+      <c r="O31" s="4">
         <v>6</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P31" s="4">
         <v>13</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="R30" s="7">
-        <f>Q30*100/120</f>
+      <c r="R31" s="7">
+        <f t="shared" si="1"/>
         <v>56.666666666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <f t="shared" si="1"/>
+    <row r="32" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5">
         <v>8792207</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="5">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="H32" s="5">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
         <v>17</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="4">
         <v>18</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="4">
         <v>18</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L32" s="4">
         <v>18</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M32" s="4">
         <v>17</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <v>18</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="4">
         <v>17</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P32" s="4">
         <v>17</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q32" s="3">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="R31" s="7">
-        <f>Q31*100/120</f>
+      <c r="R32" s="7">
+        <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <f t="shared" si="1"/>
+    <row r="33" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>8835723</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="5">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="5">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="J32" s="4">
-        <v>12</v>
-      </c>
-      <c r="K32" s="4">
-        <v>12</v>
-      </c>
-      <c r="L32" s="4">
-        <v>14</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="J33" s="4">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4">
+        <v>12</v>
+      </c>
+      <c r="L33" s="4">
+        <v>14</v>
+      </c>
+      <c r="M33" s="4">
         <v>0</v>
       </c>
-      <c r="N32" s="4">
-        <v>14</v>
-      </c>
-      <c r="O32" s="4">
+      <c r="N33" s="4">
+        <v>14</v>
+      </c>
+      <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P33" s="4">
         <v>2</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q33" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="R32" s="7">
-        <f>Q32*100/120</f>
+      <c r="R33" s="7">
+        <f t="shared" si="1"/>
         <v>49.166666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <f t="shared" si="1"/>
+    <row r="34" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>8797179</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="5">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4">
-        <v>8</v>
-      </c>
-      <c r="J33" s="4">
-        <v>14</v>
-      </c>
-      <c r="K33" s="4">
-        <v>13</v>
-      </c>
-      <c r="L33" s="4">
-        <v>14</v>
-      </c>
-      <c r="M33" s="4">
-        <v>4</v>
-      </c>
-      <c r="N33" s="4">
-        <v>14</v>
-      </c>
-      <c r="O33" s="4">
-        <v>4</v>
-      </c>
-      <c r="P33" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="R33" s="7">
-        <f>Q33*100/120</f>
-        <v>55.833333333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>9062159</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H34" s="5">
         <v>10</v>
@@ -2893,51 +2895,51 @@
         <v>14</v>
       </c>
       <c r="K34" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O34" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R34" s="7">
-        <f>Q34*100/120</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>10352570</v>
+        <v>9062159</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>20</v>
@@ -2946,57 +2948,57 @@
         <v>10</v>
       </c>
       <c r="I35" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J35" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K35" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L35" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P35" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="R35" s="7">
-        <f>Q35*100/120</f>
-        <v>71.666666666666671</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>10118973</v>
+        <v>10352570</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>20</v>
@@ -3011,110 +3013,110 @@
         <v>18</v>
       </c>
       <c r="K36" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L36" s="4">
+        <v>17</v>
+      </c>
+      <c r="M36" s="4">
+        <v>7</v>
+      </c>
+      <c r="N36" s="4">
+        <v>17</v>
+      </c>
+      <c r="O36" s="4">
+        <v>5</v>
+      </c>
+      <c r="P36" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10118973</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="5">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
+        <v>18</v>
+      </c>
+      <c r="K37" s="4">
+        <v>15</v>
+      </c>
+      <c r="L37" s="4">
         <v>19</v>
       </c>
-      <c r="M36" s="4">
-        <v>10</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="M37" s="4">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4">
         <v>19</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O37" s="4">
         <v>6</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P37" s="4">
         <v>7</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q37" s="3">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="R36" s="7">
-        <f>Q36*100/120</f>
+      <c r="R37" s="7">
+        <f t="shared" si="1"/>
         <v>75.833333333333329</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <f t="shared" si="1"/>
+    <row r="38" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>8814734</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="5">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4">
-        <v>9</v>
-      </c>
-      <c r="J37" s="4">
-        <v>17</v>
-      </c>
-      <c r="K37" s="4">
-        <v>16</v>
-      </c>
-      <c r="L37" s="4">
-        <v>18</v>
-      </c>
-      <c r="M37" s="4">
-        <v>6</v>
-      </c>
-      <c r="N37" s="4">
-        <v>18</v>
-      </c>
-      <c r="O37" s="4">
-        <v>5</v>
-      </c>
-      <c r="P37" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="R37" s="7">
-        <f>Q37*100/120</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>7407917</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>15</v>
@@ -3126,10 +3128,10 @@
         <v>9</v>
       </c>
       <c r="J38" s="4">
+        <v>17</v>
+      </c>
+      <c r="K38" s="4">
         <v>16</v>
-      </c>
-      <c r="K38" s="4">
-        <v>13</v>
       </c>
       <c r="L38" s="4">
         <v>18</v>
@@ -3148,14 +3150,78 @@
       </c>
       <c r="Q38" s="3">
         <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7407917</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4">
+        <v>9</v>
+      </c>
+      <c r="J39" s="4">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4">
+        <v>13</v>
+      </c>
+      <c r="L39" s="4">
+        <v>18</v>
+      </c>
+      <c r="M39" s="4">
+        <v>6</v>
+      </c>
+      <c r="N39" s="4">
+        <v>18</v>
+      </c>
+      <c r="O39" s="4">
+        <v>5</v>
+      </c>
+      <c r="P39" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R38" s="7">
-        <f>Q38*100/120</f>
+      <c r="R39" s="7">
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>